--- a/Data/kantonale_vorlagen_list.xlsx
+++ b/Data/kantonale_vorlagen_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Kanton</t>
   </si>
@@ -38,6 +38,9 @@
     <t>SO</t>
   </si>
   <si>
+    <t>BL</t>
+  </si>
+  <si>
     <t>SH</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>TI</t>
   </si>
   <si>
+    <t>GE</t>
+  </si>
+  <si>
     <t>303614</t>
   </si>
   <si>
@@ -71,6 +77,33 @@
     <t>364741</t>
   </si>
   <si>
+    <t>429185</t>
+  </si>
+  <si>
+    <t>429388</t>
+  </si>
+  <si>
+    <t>429482</t>
+  </si>
+  <si>
+    <t>430618</t>
+  </si>
+  <si>
+    <t>430619</t>
+  </si>
+  <si>
+    <t>430620</t>
+  </si>
+  <si>
+    <t>430636</t>
+  </si>
+  <si>
+    <t>430652</t>
+  </si>
+  <si>
+    <t>430668</t>
+  </si>
+  <si>
     <t>368987</t>
   </si>
   <si>
@@ -92,6 +125,9 @@
     <t>373704</t>
   </si>
   <si>
+    <t>435591</t>
+  </si>
+  <si>
     <t>Ausbau der Kantonsstrasse K 36 durch die Lammschlucht im Entlebuch, 2. Abschnitt</t>
   </si>
   <si>
@@ -113,6 +149,33 @@
     <t>Teilrevision des Sozialgesetzes (SG); Anhebung der Familienzulagen</t>
   </si>
   <si>
+    <t>Initiative Tempo 30 auf Hauptstrassen</t>
+  </si>
+  <si>
+    <t>Initiative Tempo 30 auf Hauptstrassen: Gegenvorschlag</t>
+  </si>
+  <si>
+    <t>Initiative Tempo 30 auf Hauptstrassen: Stichfrage</t>
+  </si>
+  <si>
+    <t>Initiative Prämienabzug für alle</t>
+  </si>
+  <si>
+    <t>Initiative Prämienabzug für alle: Gegenvorschlag</t>
+  </si>
+  <si>
+    <t>Initiative Prämienabzug für alle: Stichfrage</t>
+  </si>
+  <si>
+    <t>Solar-Initiative</t>
+  </si>
+  <si>
+    <t>Transparenz- und Mitwirkungsinitiative</t>
+  </si>
+  <si>
+    <t>Verfassungsänderung Kreislaufwirtschaft</t>
+  </si>
+  <si>
     <t>Änderung des Gesetzes über die Förderung des öffentlichen Verkehrs</t>
   </si>
   <si>
@@ -132,6 +195,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Loi modifiant la loi sur l'inspection et les relations du travail (LIRT)</t>
   </si>
   <si>
     <t>Iniziativa popolare legislativa generica "Rispetto per i diritti di chi lavora! Combattiamo il dumping salariale!"</t>
@@ -207,16 +273,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -224,16 +290,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -241,16 +307,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -258,16 +324,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -275,16 +341,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -292,16 +358,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -309,16 +375,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -326,118 +392,288 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
